--- a/fourPolar-io/src/test/resources/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/TemplateTwoCamera.xlsx
+++ b/fourPolar-io/src/test/resources/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/TemplateTwoCamera.xlsx
@@ -34,40 +34,40 @@
     <t xml:space="preserve">Pol45_135</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img1_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img1_C1_Pol45_135.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img2_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img2_C1_Pol45_135.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img3_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img3_C1_Pol45_135.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img4_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img4_C1_Pol45_135.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img5_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img5_C1_Pol45_135.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img6_C1_Pol0_90.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/TwoCamera/Img6_C1_Pol45_135.tif</t>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img1_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img1_C1_Pol45_135.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img2_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img2_C1_Pol45_135.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img3_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img3_C1_Pol45_135.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img4_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img4_C1_Pol45_135.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img5_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img5_C1_Pol45_135.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img6_C1_Pol0_90.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/masoud/Documents/four-polar/fourPolar-io/target/test-classes/fr/fresnel/fourPolar/io/imageSet/acquisition/sample/finders/excel/SampleImageSetByExcelFileFinder/TwoCamera/Img6_C1_Pol45_135.tif</t>
   </si>
 </sst>
 </file>
@@ -175,10 +175,10 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
